--- a/DB/DBDyctionary_1.0.1.xlsx
+++ b/DB/DBDyctionary_1.0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="187">
   <si>
     <t>Description</t>
   </si>
@@ -538,6 +538,48 @@
   </si>
   <si>
     <t>Chiave esterna per refferenziare lo studente alla tabella contenetele informazioni relative all'idonietà del tirocinio</t>
+  </si>
+  <si>
+    <t>ClaimStatus</t>
+  </si>
+  <si>
+    <t>idClaimStatus</t>
+  </si>
+  <si>
+    <t>Identificativo numerico univoco della richiesta dello stato</t>
+  </si>
+  <si>
+    <t>Stringa adibita alla descrizione del tipo di richiesta.</t>
+  </si>
+  <si>
+    <t>ClaimTraining</t>
+  </si>
+  <si>
+    <t>idClaimTraining</t>
+  </si>
+  <si>
+    <t>Identificativo numerico univoco della richiesta di tirocinio.</t>
+  </si>
+  <si>
+    <t>Stringa adibita alla descrizione del tipo di richiesta di tirocinio.</t>
+  </si>
+  <si>
+    <t>FK_ClaimStatus</t>
+  </si>
+  <si>
+    <t>Chiave esterna per reperire le informazioni riguardo lo stato della richiesta.</t>
+  </si>
+  <si>
+    <t>FK_Professor</t>
+  </si>
+  <si>
+    <t>Chiave esterna per reperire i dati del Professore associato a questo determinato tirocinio.</t>
+  </si>
+  <si>
+    <t>FKOrganization</t>
+  </si>
+  <si>
+    <t>Chiave esterna per reperire i dati dell'azienda che offre il tirocnio</t>
   </si>
 </sst>
 </file>
@@ -643,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -897,8 +939,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1010,8 +1065,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1113,7 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,6 +1187,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1138,6 +1214,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,21 +1259,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,44 +1274,49 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="115">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -1273,6 +1372,8 @@
     <cellStyle name="Collegamento ipertestuale" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -1328,6 +1429,8 @@
     <cellStyle name="Collegamento visitato" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1750,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1771,41 +1874,41 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13" customHeight="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10" ht="21" thickBot="1">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:10" ht="16" thickBot="1">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="J8" s="15" t="s">
         <v>21</v>
       </c>
@@ -1814,14 +1917,14 @@
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1998,14 +2101,14 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
       <c r="J17" s="15" t="s">
         <v>153</v>
       </c>
@@ -2014,14 +2117,14 @@
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="10" t="s">
@@ -2122,27 +2225,27 @@
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="10" t="s">
@@ -2375,48 +2478,48 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16" thickBot="1">
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="52">
-        <v>1</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="52" t="s">
+      <c r="E36" s="51">
+        <v>1</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31" thickBot="1">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="52">
-        <v>1</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="52" t="s">
+      <c r="E37" s="51">
+        <v>1</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="51" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2435,27 +2538,27 @@
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:9" ht="16" thickBot="1">
       <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:9" ht="16" thickBot="1">
       <c r="B41" s="10" t="s">
@@ -2677,27 +2780,27 @@
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="66"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="52" spans="2:8" ht="16" thickBot="1">
       <c r="B52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="2:8" ht="16" thickBot="1">
       <c r="B53" s="10" t="s">
@@ -2873,27 +2976,27 @@
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="66"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
     </row>
     <row r="62" spans="2:8" ht="16" thickBot="1">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" spans="2:8" ht="16" thickBot="1">
       <c r="B63" s="10" t="s">
@@ -2977,27 +3080,27 @@
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="66"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
     </row>
     <row r="68" spans="2:8" ht="16" thickBot="1">
       <c r="B68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="55"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:8" ht="16" thickBot="1">
       <c r="B69" s="10" t="s">
@@ -3288,27 +3391,27 @@
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="66"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
     </row>
     <row r="83" spans="2:8" ht="16" thickBot="1">
       <c r="B83" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="2:8" ht="16" thickBot="1">
       <c r="B84" s="10" t="s">
@@ -3384,27 +3487,27 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="62" t="s">
+      <c r="C88" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="66"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
     </row>
     <row r="89" spans="2:8" ht="16" thickBot="1">
       <c r="B89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="55"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
     </row>
     <row r="90" spans="2:8" ht="16" thickBot="1">
       <c r="B90" s="10" t="s">
@@ -3618,27 +3721,27 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="67" t="s">
+      <c r="C100" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="69"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="80"/>
     </row>
     <row r="101" spans="2:8" ht="16" thickBot="1">
       <c r="B101" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="55"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="60"/>
     </row>
     <row r="102" spans="2:8" ht="16" thickBot="1">
       <c r="B102" s="10" t="s">
@@ -3679,180 +3782,456 @@
       <c r="F103" s="42">
         <v>45</v>
       </c>
-      <c r="G103" s="44" t="s">
+      <c r="G103" s="43" t="s">
         <v>134</v>
       </c>
       <c r="H103" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="43" t="s">
+    <row r="104" spans="2:8" ht="16" thickBot="1">
+      <c r="B104" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="44" t="s">
+      <c r="C104" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="44">
+      <c r="E104" s="51">
         <v>0</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="F104" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G104" s="44" t="s">
+      <c r="G104" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H104" s="44" t="s">
+      <c r="H104" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="16" thickBot="1"/>
     <row r="107" spans="2:8" ht="16" thickBot="1">
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="58"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="72"/>
     </row>
     <row r="108" spans="2:8" ht="16" thickBot="1">
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="75"/>
     </row>
     <row r="109" spans="2:8" ht="16" thickBot="1">
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="48" t="s">
+      <c r="C109" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="48" t="s">
+      <c r="E109" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="48" t="s">
+      <c r="F109" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="48" t="s">
+      <c r="G109" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H109" s="48" t="s">
+      <c r="H109" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E110" s="50">
-        <v>1</v>
-      </c>
-      <c r="F110" s="50">
+      <c r="E110" s="49">
+        <v>1</v>
+      </c>
+      <c r="F110" s="49">
         <v>2147483647</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E111" s="50">
+      <c r="E111" s="49">
         <v>0</v>
       </c>
-      <c r="F111" s="50">
+      <c r="F111" s="49">
         <v>45</v>
       </c>
-      <c r="G111" s="50" t="s">
+      <c r="G111" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H111" s="50" t="s">
+      <c r="H111" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="50" t="s">
+      <c r="C112" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E112" s="50">
+      <c r="E112" s="49">
         <v>0</v>
       </c>
-      <c r="F112" s="50">
+      <c r="F112" s="49">
         <v>45</v>
       </c>
-      <c r="G112" s="50" t="s">
+      <c r="G112" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H112" s="50" t="s">
+      <c r="H112" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="16" thickBot="1">
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C113" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="E113" s="50">
-        <v>1</v>
-      </c>
-      <c r="F113" s="52">
+      <c r="E113" s="82">
+        <v>1</v>
+      </c>
+      <c r="F113" s="51">
         <v>2147483647</v>
       </c>
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="H113" s="50" t="s">
+      <c r="H113" s="82" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="114" spans="2:8" ht="16" thickBot="1"/>
+    <row r="115" spans="2:8" ht="16" thickBot="1">
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="80"/>
+    </row>
+    <row r="116" spans="2:8" ht="16" thickBot="1">
+      <c r="B116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="59"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="60"/>
+    </row>
+    <row r="117" spans="2:8" ht="16" thickBot="1">
+      <c r="B117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="42">
+        <v>1</v>
+      </c>
+      <c r="F118" s="42">
+        <v>2147483647</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" s="85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="16" thickBot="1">
+      <c r="B119" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="51">
+        <v>0</v>
+      </c>
+      <c r="F119" s="51">
+        <v>45</v>
+      </c>
+      <c r="G119" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" s="86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="16" thickBot="1"/>
+    <row r="121" spans="2:8" ht="16" thickBot="1">
+      <c r="B121" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="90"/>
+    </row>
+    <row r="122" spans="2:8" ht="16" thickBot="1">
+      <c r="B122" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="75"/>
+    </row>
+    <row r="123" spans="2:8" ht="16" thickBot="1">
+      <c r="B123" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" s="49">
+        <v>1</v>
+      </c>
+      <c r="F124" s="49">
+        <v>2147483647</v>
+      </c>
+      <c r="G124" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H124" s="91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E125" s="49">
+        <v>0</v>
+      </c>
+      <c r="F125" s="49">
+        <v>45</v>
+      </c>
+      <c r="G125" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H125" s="91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="E126" s="93">
+        <v>1</v>
+      </c>
+      <c r="F126" s="49">
+        <v>2147483647</v>
+      </c>
+      <c r="G126" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="H126" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="93">
+        <v>1</v>
+      </c>
+      <c r="F127" s="49">
+        <v>2147483647</v>
+      </c>
+      <c r="G127" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="H127" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="16" thickBot="1">
+      <c r="B128" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" s="97">
+        <v>1</v>
+      </c>
+      <c r="F128" s="97">
+        <v>2147483647</v>
+      </c>
+      <c r="G128" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="H128" s="99" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
@@ -3866,17 +4245,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DB/DBDyctionary_1.0.1.xlsx
+++ b/DB/DBDyctionary_1.0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="192">
   <si>
     <t>Description</t>
   </si>
@@ -580,6 +580,21 @@
   </si>
   <si>
     <t>Chiave esterna per reperire i dati dell'azienda che offre il tirocnio</t>
+  </si>
+  <si>
+    <t>OfferTraining</t>
+  </si>
+  <si>
+    <t>idOfferTraining</t>
+  </si>
+  <si>
+    <t>FK_Organization</t>
+  </si>
+  <si>
+    <t>RejectedTrainingMessage</t>
+  </si>
+  <si>
+    <t>idRejectedTrainingMessage</t>
   </si>
 </sst>
 </file>
@@ -953,8 +968,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1193,87 +1218,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,16 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,8 +1249,101 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="125">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -1374,6 +1401,11 @@
     <cellStyle name="Collegamento ipertestuale" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -1431,6 +1463,11 @@
     <cellStyle name="Collegamento visitato" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1853,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:H128"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1874,41 +1911,41 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13" customHeight="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10" ht="21" thickBot="1">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="2:10" ht="16" thickBot="1">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
       <c r="J8" s="15" t="s">
         <v>21</v>
       </c>
@@ -1917,14 +1954,14 @@
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
@@ -2101,14 +2138,14 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
       <c r="J17" s="15" t="s">
         <v>153</v>
       </c>
@@ -2117,14 +2154,14 @@
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="10" t="s">
@@ -2225,27 +2262,27 @@
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="10" t="s">
@@ -2538,27 +2575,27 @@
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="57"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:9" ht="16" thickBot="1">
       <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
     </row>
     <row r="41" spans="1:9" ht="16" thickBot="1">
       <c r="B41" s="10" t="s">
@@ -2780,27 +2817,27 @@
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="88"/>
     </row>
     <row r="52" spans="2:8" ht="16" thickBot="1">
       <c r="B52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="2:8" ht="16" thickBot="1">
       <c r="B53" s="10" t="s">
@@ -2976,27 +3013,27 @@
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="57"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="88"/>
     </row>
     <row r="62" spans="2:8" ht="16" thickBot="1">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="74"/>
     </row>
     <row r="63" spans="2:8" ht="16" thickBot="1">
       <c r="B63" s="10" t="s">
@@ -3080,27 +3117,27 @@
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="88"/>
     </row>
     <row r="68" spans="2:8" ht="16" thickBot="1">
       <c r="B68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="74"/>
     </row>
     <row r="69" spans="2:8" ht="16" thickBot="1">
       <c r="B69" s="10" t="s">
@@ -3391,27 +3428,27 @@
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="57"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="88"/>
     </row>
     <row r="83" spans="2:8" ht="16" thickBot="1">
       <c r="B83" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="60"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="74"/>
     </row>
     <row r="84" spans="2:8" ht="16" thickBot="1">
       <c r="B84" s="10" t="s">
@@ -3487,27 +3524,27 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="57"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="87"/>
+      <c r="H88" s="88"/>
     </row>
     <row r="89" spans="2:8" ht="16" thickBot="1">
       <c r="B89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="60"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="74"/>
     </row>
     <row r="90" spans="2:8" ht="16" thickBot="1">
       <c r="B90" s="10" t="s">
@@ -3721,27 +3758,27 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="78" t="s">
+      <c r="C100" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="79"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="80"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="71"/>
     </row>
     <row r="101" spans="2:8" ht="16" thickBot="1">
       <c r="B101" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="60"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="74"/>
     </row>
     <row r="102" spans="2:8" ht="16" thickBot="1">
       <c r="B102" s="10" t="s">
@@ -3790,13 +3827,13 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="16" thickBot="1">
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C104" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="84" t="s">
+      <c r="D104" s="57" t="s">
         <v>159</v>
       </c>
       <c r="E104" s="51">
@@ -3817,27 +3854,27 @@
       <c r="B107" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="70" t="s">
+      <c r="C107" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="72"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="83"/>
     </row>
     <row r="108" spans="2:8" ht="16" thickBot="1">
       <c r="B108" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="75"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="80"/>
     </row>
     <row r="109" spans="2:8" ht="16" thickBot="1">
       <c r="B109" s="46" t="s">
@@ -3932,25 +3969,25 @@
       </c>
     </row>
     <row r="113" spans="2:8" ht="16" thickBot="1">
-      <c r="B113" s="81" t="s">
+      <c r="B113" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="82" t="s">
+      <c r="C113" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="83" t="s">
+      <c r="D113" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="E113" s="82">
+      <c r="E113" s="55">
         <v>1</v>
       </c>
       <c r="F113" s="51">
         <v>2147483647</v>
       </c>
-      <c r="G113" s="82" t="s">
+      <c r="G113" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="H113" s="82" t="s">
+      <c r="H113" s="55" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3959,27 +3996,27 @@
       <c r="B115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C115" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="80"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="71"/>
     </row>
     <row r="116" spans="2:8" ht="16" thickBot="1">
       <c r="B116" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="60"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="74"/>
     </row>
     <row r="117" spans="2:8" ht="16" thickBot="1">
       <c r="B117" s="10" t="s">
@@ -4023,18 +4060,18 @@
       <c r="G118" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="H118" s="85" t="s">
+      <c r="H118" s="58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="16" thickBot="1">
-      <c r="B119" s="84" t="s">
+      <c r="B119" s="57" t="s">
         <v>26</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="84" t="s">
+      <c r="D119" s="57" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="51">
@@ -4046,36 +4083,36 @@
       <c r="G119" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H119" s="86" t="s">
+      <c r="H119" s="59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="16" thickBot="1"/>
     <row r="121" spans="2:8" ht="16" thickBot="1">
-      <c r="B121" s="87" t="s">
+      <c r="B121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="89" t="s">
+      <c r="C121" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="90"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="77"/>
     </row>
     <row r="122" spans="2:8" ht="16" thickBot="1">
       <c r="B122" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="74"/>
-      <c r="H122" s="75"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="80"/>
     </row>
     <row r="123" spans="2:8" ht="16" thickBot="1">
       <c r="B123" s="46" t="s">
@@ -4119,7 +4156,7 @@
       <c r="G124" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H124" s="91" t="s">
+      <c r="H124" s="60" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4142,96 +4179,300 @@
       <c r="G125" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="H125" s="91" t="s">
+      <c r="H125" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="2:8">
-      <c r="B126" s="92" t="s">
+      <c r="B126" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="93" t="s">
+      <c r="C126" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="94" t="s">
+      <c r="D126" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="E126" s="93">
+      <c r="E126" s="62">
         <v>1</v>
       </c>
       <c r="F126" s="49">
         <v>2147483647</v>
       </c>
-      <c r="G126" s="93" t="s">
+      <c r="G126" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="95" t="s">
+      <c r="H126" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="127" spans="2:8">
-      <c r="B127" s="92" t="s">
+      <c r="B127" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="93" t="s">
+      <c r="C127" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="94" t="s">
+      <c r="D127" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="E127" s="93">
+      <c r="E127" s="62">
         <v>1</v>
       </c>
       <c r="F127" s="49">
         <v>2147483647</v>
       </c>
-      <c r="G127" s="93" t="s">
+      <c r="G127" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="H127" s="95" t="s">
+      <c r="H127" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="16" thickBot="1">
-      <c r="B128" s="96" t="s">
+      <c r="B128" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="97" t="s">
+      <c r="C128" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D128" s="98" t="s">
+      <c r="D128" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="E128" s="97">
-        <v>1</v>
-      </c>
-      <c r="F128" s="97">
+      <c r="E128" s="66">
+        <v>1</v>
+      </c>
+      <c r="F128" s="66">
         <v>2147483647</v>
       </c>
-      <c r="G128" s="97" t="s">
+      <c r="G128" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="H128" s="99" t="s">
+      <c r="H128" s="68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="16" thickBot="1"/>
+    <row r="130" spans="2:8" ht="16" thickBot="1">
+      <c r="B130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="77"/>
+    </row>
+    <row r="131" spans="2:8" ht="16" thickBot="1">
+      <c r="B131" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="80"/>
+    </row>
+    <row r="132" spans="2:8" ht="16" thickBot="1">
+      <c r="B132" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="49">
+        <v>1</v>
+      </c>
+      <c r="F133" s="49">
+        <v>2147483647</v>
+      </c>
+      <c r="G133" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H133" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E134" s="49">
+        <v>0</v>
+      </c>
+      <c r="F134" s="49">
+        <v>45</v>
+      </c>
+      <c r="G134" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="16" thickBot="1">
+      <c r="B135" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E135" s="55">
+        <v>1</v>
+      </c>
+      <c r="F135" s="55">
+        <v>2147483647</v>
+      </c>
+      <c r="G135" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H135" s="99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="16" thickBot="1"/>
+    <row r="137" spans="2:8" ht="16" thickBot="1">
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="77"/>
+    </row>
+    <row r="138" spans="2:8" ht="16" thickBot="1">
+      <c r="B138" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="80"/>
+    </row>
+    <row r="139" spans="2:8" ht="16" thickBot="1">
+      <c r="B139" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C140" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E140" s="49">
+        <v>1</v>
+      </c>
+      <c r="F140" s="49">
+        <v>2147483647</v>
+      </c>
+      <c r="G140" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H140" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="16" thickBot="1">
+      <c r="B141" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E141" s="55">
+        <v>0</v>
+      </c>
+      <c r="F141" s="55">
+        <v>45</v>
+      </c>
+      <c r="G141" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" s="99" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
+  <mergeCells count="32">
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
@@ -4245,6 +4486,21 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C108:H108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
